--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/StimuliNegative_3.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/StimuliNegative_3.xlsx
@@ -42,64 +42,64 @@
     <t>.jpg</t>
   </si>
   <si>
-    <t>Stimuli/252.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/210.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/225.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/228.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/251.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/3185.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/3280.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/6190.jpg</t>
-  </si>
-  <si>
     <t>Stimuli/6825.jpg</t>
   </si>
   <si>
-    <t>Stimuli/6838.jpg</t>
-  </si>
-  <si>
     <t>Stimuli/8230.jpg</t>
   </si>
   <si>
-    <t>Stimuli/8231.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9040.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9120.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9145.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9160.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9182.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9185.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9254.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9420.jpg</t>
+    <t>Stimuli/208.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/219.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/226.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/253.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/254.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/326.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/1301.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3350.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6242.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6410.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6555.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6940.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9041.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9140.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9340.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9409.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9570.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9800.jpg</t>
   </si>
 </sst>
 </file>
@@ -434,72 +434,72 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
